--- a/app/base/base_model.xlsx
+++ b/app/base/base_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PythonProjects\MFC\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PythonProjects\MFC\app\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBA4C1-B4D4-4138-8D75-44F1CA22ADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF7C440-89B1-4F3D-9151-4519689BF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="2280" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status_specialists" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="program_services" sheetId="5" r:id="rId6"/>
     <sheet name="dop_service" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">program_services!$A$1:$B$88</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -782,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +795,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -853,6 +874,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2825,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9317C3-3510-4BB1-ACDE-F7D4359075BB}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,702 +2874,707 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B88" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B88" xr:uid="{6B9317C3-3510-4BB1-ACDE-F7D4359075BB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B88">
+      <sortCondition ref="A1:A88"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
